--- a/DATA_goal/Junction_Flooding_481.xlsx
+++ b/DATA_goal/Junction_Flooding_481.xlsx
@@ -446,36 +446,36 @@
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="6" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44812.54861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.46</v>
+        <v>4.58</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.51</v>
+        <v>5.11</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1.16</v>
+        <v>11.55</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.04</v>
+        <v>10.39</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.49</v>
+        <v>4.91</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>1.18</v>
+        <v>11.84</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.75</v>
+        <v>7.5</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.37</v>
+        <v>3.65</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.63</v>
+        <v>6.26</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.67</v>
+        <v>6.66</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.51</v>
+        <v>5.08</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.13</v>
+        <v>1.31</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.43</v>
+        <v>4.28</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.64</v>
+        <v>6.35</v>
       </c>
       <c r="Q2" s="4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>66.34</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>13.25</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="Y2" s="4" t="n">
         <v>0.38</v>
       </c>
-      <c r="R2" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>6.63</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.04</v>
-      </c>
       <c r="Z2" s="4" t="n">
-        <v>0.78</v>
+        <v>7.84</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.39</v>
+        <v>3.85</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.2</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.55</v>
+        <v>5.53</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.7</v>
+        <v>6.99</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.24</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.99</v>
+        <v>9.92</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.33</v>
+        <v>3.26</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44812.55555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.21</v>
+        <v>12.1</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.99</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.73</v>
+        <v>27.32</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.28</v>
+        <v>22.79</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.02</v>
+        <v>10.18</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>3.52</v>
+        <v>35.22</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.58</v>
+        <v>15.79</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.73</v>
+        <v>7.27</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.12</v>
+        <v>11.18</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.2</v>
+        <v>11.98</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.16</v>
+        <v>11.64</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.31</v>
+        <v>3.08</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.97</v>
+        <v>9.73</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.43</v>
+        <v>14.31</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.83</v>
+        <v>8.33</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.33</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.27</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>14.68</v>
+        <v>146.84</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>2.83</v>
+        <v>28.3</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.92</v>
+        <v>9.17</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.85</v>
+        <v>18.51</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.05</v>
+        <v>10.47</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.24</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.89</v>
+        <v>18.87</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.82</v>
+        <v>8.24</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.82</v>
+        <v>8.17</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.92</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.26</v>
+        <v>12.55</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>3.2</v>
+        <v>31.99</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.57</v>
+        <v>5.68</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.14</v>
+        <v>11.39</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44812.5625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.32</v>
+        <v>3.24</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.29</v>
+        <v>2.94</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.78</v>
+        <v>7.77</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.65</v>
+        <v>6.5</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.3</v>
+        <v>3.01</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>1.55</v>
+        <v>15.47</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.47</v>
+        <v>4.75</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.23</v>
+        <v>2.3</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.36</v>
+        <v>3.56</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.38</v>
+        <v>3.81</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.33</v>
+        <v>3.32</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.84</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.27</v>
+        <v>2.69</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.43</v>
+        <v>4.29</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.25</v>
+        <v>2.46</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>3.83</v>
+        <v>38.29</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.87</v>
+        <v>8.67</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.26</v>
+        <v>2.62</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.55</v>
+        <v>5.5</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.33</v>
+        <v>3.28</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.35</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.8</v>
+        <v>8.01</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.24</v>
+        <v>2.44</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.28</v>
+        <v>2.76</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.3</v>
+        <v>2.96</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.4</v>
+        <v>3.96</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.16</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.46</v>
+        <v>14.56</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.18</v>
+        <v>1.81</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.33</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44812.56944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.92</v>
+        <v>9.15</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.72</v>
+        <v>7.25</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.21</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.05</v>
+        <v>20.48</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.69</v>
+        <v>16.95</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.75</v>
+        <v>7.55</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>2.74</v>
+        <v>27.4</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.17</v>
+        <v>11.72</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.53</v>
+        <v>5.32</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.87</v>
+        <v>8.74</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.87</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.23</v>
+        <v>2.3</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.73</v>
+        <v>7.26</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.07</v>
+        <v>10.67</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.62</v>
+        <v>6.21</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.21</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.19</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>10.69</v>
+        <v>106.93</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.09</v>
+        <v>20.92</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.68</v>
+        <v>6.81</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.38</v>
+        <v>13.83</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.76</v>
+        <v>7.64</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.1</v>
+        <v>0.96</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.4</v>
+        <v>13.95</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.61</v>
+        <v>6.12</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.58</v>
+        <v>5.84</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.67</v>
+        <v>6.66</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.91</v>
+        <v>9.15</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.13</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>2.47</v>
+        <v>24.7</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.41</v>
+        <v>4.13</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.85</v>
+        <v>8.51</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_481.xlsx
+++ b/DATA_goal/Junction_Flooding_481.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44812.54861111111</v>
+        <v>45162.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.58</v>
+        <v>4.347</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.11</v>
+        <v>5.032</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>0.777</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>11.55</v>
+        <v>10.022</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>10.39</v>
+        <v>8.942</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>4.91</v>
+        <v>4.483</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>11.84</v>
+        <v>9.151999999999999</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>7.5</v>
+        <v>5.852</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>3.65</v>
+        <v>2.498</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6.26</v>
+        <v>6.03</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>6.66</v>
+        <v>7.398</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>5.08</v>
+        <v>4.257</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>1.31</v>
+        <v>0.73</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>4.28</v>
+        <v>3.371</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>6.35</v>
+        <v>5.736</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>3.75</v>
+        <v>3.045</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.4</v>
+        <v>0.138</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.14</v>
+        <v>0.227</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>66.34</v>
+        <v>54.637</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>13.25</v>
+        <v>11.069</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>4.22</v>
+        <v>2.959</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>7.56</v>
+        <v>6.58</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>5.69</v>
+        <v>4.913</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.38</v>
+        <v>0.755</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>7.84</v>
+        <v>5.641</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>3.85</v>
+        <v>3.12</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.2</v>
+        <v>5.177</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>5.53</v>
+        <v>2.517</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>6.99</v>
+        <v>6.419</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.24</v>
+        <v>0.192</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>9.92</v>
+        <v>7.159</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.26</v>
+        <v>2.015</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>5</v>
+        <v>4.399</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44812.55555555555</v>
+        <v>45162.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>12.1</v>
+        <v>21.689</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>9.859999999999999</v>
+        <v>17.023</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.2</v>
+        <v>1.054</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>27.32</v>
+        <v>47.359</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>22.79</v>
+        <v>39.476</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>10.18</v>
+        <v>17.47</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>35.22</v>
+        <v>60.885</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>15.79</v>
+        <v>26.593</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>7.27</v>
+        <v>11.944</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>11.18</v>
+        <v>18.721</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>11.98</v>
+        <v>20.641</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>11.64</v>
+        <v>20.119</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.08</v>
+        <v>5.243</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>9.73</v>
+        <v>16.855</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>14.31</v>
+        <v>24.717</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>8.33</v>
+        <v>14.233</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.33</v>
+        <v>0.178</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.27</v>
+        <v>0.654</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>146.84</v>
+        <v>255.532</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>28.3</v>
+        <v>48.194</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>9.17</v>
+        <v>15.447</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>18.51</v>
+        <v>32.299</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>10.47</v>
+        <v>17.684</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.24</v>
+        <v>2.332</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>18.87</v>
+        <v>31.455</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>8.24</v>
+        <v>13.93</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>8.17</v>
+        <v>13.415</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>9.220000000000001</v>
+        <v>14.161</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>12.55</v>
+        <v>21.005</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.2</v>
+        <v>0.115</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>31.99</v>
+        <v>55.147</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>5.68</v>
+        <v>9.172000000000001</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>11.39</v>
+        <v>19.72</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44812.5625</v>
+        <v>45162.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>3.24</v>
+        <v>14.625</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>2.94</v>
+        <v>11.448</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.712</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>7.77</v>
+        <v>31.93</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>6.5</v>
+        <v>26.604</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>3.01</v>
+        <v>11.755</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>15.47</v>
+        <v>47.072</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>4.75</v>
+        <v>17.952</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>2.3</v>
+        <v>8.082000000000001</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>3.56</v>
+        <v>12.588</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>3.81</v>
+        <v>13.893</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>3.32</v>
+        <v>13.558</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.84</v>
+        <v>3.533</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>2.69</v>
+        <v>11.35</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>4.29</v>
+        <v>16.687</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>2.46</v>
+        <v>9.613</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.2</v>
+        <v>0.111</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.417</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>38.29</v>
+        <v>169.846</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>8.67</v>
+        <v>32.601</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>2.62</v>
+        <v>10.388</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>5.5</v>
+        <v>21.869</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>3.28</v>
+        <v>11.948</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.35</v>
+        <v>1.559</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>8.01</v>
+        <v>23.166</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>2.44</v>
+        <v>9.375999999999999</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>2.76</v>
+        <v>9.021000000000001</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>2.96</v>
+        <v>9.561999999999999</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>3.96</v>
+        <v>14.136</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.16</v>
+        <v>0.092</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>14.56</v>
+        <v>42.787</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.81</v>
+        <v>6.226</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>3.25</v>
+        <v>13.275</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44812.56944444445</v>
+        <v>45162.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>9.15</v>
+        <v>6.04</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>7.25</v>
+        <v>4.88</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.21</v>
+        <v>0.37</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>20.48</v>
+        <v>13.24</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>16.95</v>
+        <v>11.09</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>7.55</v>
+        <v>4.93</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>27.4</v>
+        <v>22.86</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>11.72</v>
+        <v>7.51</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>5.32</v>
+        <v>3.41</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>8.140000000000001</v>
+        <v>5.43</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>8.74</v>
+        <v>6.12</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>8.710000000000001</v>
+        <v>5.62</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.3</v>
+        <v>1.41</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>7.26</v>
+        <v>4.66</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>10.67</v>
+        <v>7.04</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>6.21</v>
+        <v>4.03</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.21</v>
+        <v>0.04</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.19</v>
+        <v>0.15</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>106.93</v>
+        <v>66.92</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>20.92</v>
+        <v>13.79</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>6.81</v>
+        <v>4.22</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>13.83</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>7.64</v>
+        <v>5.16</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.96</v>
+        <v>0.66</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>13.95</v>
+        <v>11.01</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>6.12</v>
+        <v>3.89</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>5.84</v>
+        <v>4.01</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>6.66</v>
+        <v>3.93</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>9.15</v>
+        <v>6.08</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.13</v>
+        <v>0.08</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>24.7</v>
+        <v>20.89</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>4.13</v>
+        <v>2.66</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>8.51</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44812.57637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>7.81</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>0.75</v>
+        <v>5.5</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_481.xlsx
+++ b/DATA_goal/Junction_Flooding_481.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,33 +444,33 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
     <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45162.50694444445</v>
+        <v>44812.54861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.347</v>
+        <v>4.576</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.032</v>
+        <v>5.111</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.777</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>10.022</v>
+        <v>11.554</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>8.942</v>
+        <v>10.389</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>4.483</v>
+        <v>4.907</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>9.151999999999999</v>
+        <v>11.844</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>5.852</v>
+        <v>7.502</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>2.498</v>
+        <v>3.653</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6.03</v>
+        <v>6.261</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>7.398</v>
+        <v>6.656</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>4.257</v>
+        <v>5.084</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.73</v>
+        <v>1.314</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>3.371</v>
+        <v>4.277</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>5.736</v>
+        <v>6.354</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>3.045</v>
+        <v>3.754</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.138</v>
+        <v>0.401</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.227</v>
+        <v>0.139</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>54.637</v>
+        <v>66.34</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>11.069</v>
+        <v>13.251</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>2.959</v>
+        <v>4.22</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>6.58</v>
+        <v>7.561</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>4.913</v>
+        <v>5.692</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.755</v>
+        <v>0.381</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>5.641</v>
+        <v>7.84</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>3.12</v>
+        <v>3.854</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.177</v>
+        <v>5.2</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.517</v>
+        <v>5.528</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>6.419</v>
+        <v>6.991</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.192</v>
+        <v>0.237</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>7.159</v>
+        <v>9.923999999999999</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>2.015</v>
+        <v>3.256</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>4.399</v>
+        <v>4.997</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45162.51388888889</v>
+        <v>44812.55555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>21.689</v>
+        <v>12.098</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>17.023</v>
+        <v>9.859</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.054</v>
+        <v>0.204</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>47.359</v>
+        <v>27.316</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>39.476</v>
+        <v>22.79</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>17.47</v>
+        <v>10.184</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>60.885</v>
+        <v>35.221</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>26.593</v>
+        <v>15.785</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>11.944</v>
+        <v>7.268</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>18.721</v>
+        <v>11.182</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>20.641</v>
+        <v>11.976</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>20.119</v>
+        <v>11.639</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>5.243</v>
+        <v>3.081</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>16.855</v>
+        <v>9.733000000000001</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>24.717</v>
+        <v>14.314</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>14.233</v>
+        <v>8.329000000000001</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.178</v>
+        <v>0.333</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.654</v>
+        <v>0.274</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>255.532</v>
+        <v>146.845</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>48.194</v>
+        <v>28.296</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>15.447</v>
+        <v>9.167</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>32.299</v>
+        <v>18.513</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>17.684</v>
+        <v>10.471</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.332</v>
+        <v>1.238</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>31.455</v>
+        <v>18.866</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>13.93</v>
+        <v>8.241</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>13.415</v>
+        <v>8.167</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>14.161</v>
+        <v>9.225</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>21.005</v>
+        <v>12.553</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.115</v>
+        <v>0.2</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>55.147</v>
+        <v>31.988</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>9.172000000000001</v>
+        <v>5.681</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>19.72</v>
+        <v>11.387</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45162.52083333334</v>
+        <v>44812.5625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>14.625</v>
+        <v>3.244</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>11.448</v>
+        <v>2.938</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.712</v>
+        <v>0.008</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>31.93</v>
+        <v>7.771</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>26.604</v>
+        <v>6.503</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>11.755</v>
+        <v>3.008</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>47.072</v>
+        <v>15.475</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>17.952</v>
+        <v>4.745</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>8.082000000000001</v>
+        <v>2.297</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>12.588</v>
+        <v>3.565</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>13.893</v>
+        <v>3.807</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>13.558</v>
+        <v>3.324</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.533</v>
+        <v>0.836</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>11.35</v>
+        <v>2.69</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>16.687</v>
+        <v>4.289</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>9.613</v>
+        <v>2.455</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.111</v>
+        <v>0.199</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.417</v>
+        <v>0.008</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>169.846</v>
+        <v>38.287</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>32.601</v>
+        <v>8.672000000000001</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>10.388</v>
+        <v>2.621</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>21.869</v>
+        <v>5.499</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>11.948</v>
+        <v>3.283</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.559</v>
+        <v>0.347</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>23.166</v>
+        <v>8.01</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>9.375999999999999</v>
+        <v>2.436</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>9.021000000000001</v>
+        <v>2.757</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>9.561999999999999</v>
+        <v>2.964</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>14.136</v>
+        <v>3.962</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.092</v>
+        <v>0.158</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>42.787</v>
+        <v>14.556</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>6.226</v>
+        <v>1.807</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>13.275</v>
+        <v>3.255</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45162.52777777778</v>
+        <v>44812.56944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>6.04</v>
+        <v>9.15</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>4.88</v>
+        <v>7.246</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.37</v>
+        <v>0.212</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>13.24</v>
+        <v>20.479</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>11.09</v>
+        <v>16.949</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>4.93</v>
+        <v>7.549</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>22.86</v>
+        <v>27.395</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>7.51</v>
+        <v>11.722</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>3.41</v>
+        <v>5.319</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>5.43</v>
+        <v>8.145</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>6.12</v>
+        <v>8.736000000000001</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>5.62</v>
+        <v>8.706</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.41</v>
+        <v>2.297</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>4.66</v>
+        <v>7.263</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>7.04</v>
+        <v>10.669</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>4.03</v>
+        <v>6.207</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.214</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.15</v>
+        <v>0.189</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>66.92</v>
+        <v>106.931</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>13.79</v>
+        <v>20.92</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>4.22</v>
+        <v>6.815</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>9.220000000000001</v>
+        <v>13.832</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>5.16</v>
+        <v>7.641</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.66</v>
+        <v>0.957</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>11.01</v>
+        <v>13.951</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>3.89</v>
+        <v>6.121</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>4.01</v>
+        <v>5.838</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>3.93</v>
+        <v>6.656</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>6.08</v>
+        <v>9.146000000000001</v>
       </c>
       <c r="AE5" s="4" t="n">
+        <v>0.129</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>24.696</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>4.126</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>8.512</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44812.57637731481</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>8.01</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Y6" s="4" t="n">
         <v>0.08</v>
       </c>
-      <c r="AF5" s="4" t="n">
-        <v>20.89</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>5.5</v>
+      <c r="Z6" s="4" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>7.81</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_481.xlsx
+++ b/DATA_goal/Junction_Flooding_481.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,33 +444,33 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
     <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
     <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44812.54861111111</v>
+        <v>45162.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.576</v>
+        <v>4.347</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.111</v>
+        <v>5.032</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>0.777</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>11.554</v>
+        <v>10.022</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>10.389</v>
+        <v>8.942</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>4.907</v>
+        <v>4.483</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>11.844</v>
+        <v>9.151999999999999</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>7.502</v>
+        <v>5.852</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>3.653</v>
+        <v>2.498</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6.261</v>
+        <v>6.03</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>6.656</v>
+        <v>7.398</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>5.084</v>
+        <v>4.257</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>1.314</v>
+        <v>0.73</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>4.277</v>
+        <v>3.371</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>6.354</v>
+        <v>5.736</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>3.754</v>
+        <v>3.045</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.401</v>
+        <v>0.138</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.139</v>
+        <v>0.227</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>66.34</v>
+        <v>54.637</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>13.251</v>
+        <v>11.069</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>4.22</v>
+        <v>2.959</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>7.561</v>
+        <v>6.58</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>5.692</v>
+        <v>4.913</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.381</v>
+        <v>0.755</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>7.84</v>
+        <v>5.641</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>3.854</v>
+        <v>3.12</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.2</v>
+        <v>5.177</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>5.528</v>
+        <v>2.517</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>6.991</v>
+        <v>6.419</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.237</v>
+        <v>0.192</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>9.923999999999999</v>
+        <v>7.159</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.256</v>
+        <v>2.015</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>4.997</v>
+        <v>4.399</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44812.55555555555</v>
+        <v>45162.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>12.098</v>
+        <v>21.689</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>9.859</v>
+        <v>17.023</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.204</v>
+        <v>1.054</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>27.316</v>
+        <v>47.359</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>22.79</v>
+        <v>39.476</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>10.184</v>
+        <v>17.47</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>35.221</v>
+        <v>60.885</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>15.785</v>
+        <v>26.593</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>7.268</v>
+        <v>11.944</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>11.182</v>
+        <v>18.721</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>11.976</v>
+        <v>20.641</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>11.639</v>
+        <v>20.119</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.081</v>
+        <v>5.243</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>9.733000000000001</v>
+        <v>16.855</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>14.314</v>
+        <v>24.717</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>8.329000000000001</v>
+        <v>14.233</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.333</v>
+        <v>0.178</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.274</v>
+        <v>0.654</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>146.845</v>
+        <v>255.532</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>28.296</v>
+        <v>48.194</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>9.167</v>
+        <v>15.447</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>18.513</v>
+        <v>32.299</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>10.471</v>
+        <v>17.684</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.238</v>
+        <v>2.332</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>18.866</v>
+        <v>31.455</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>8.241</v>
+        <v>13.93</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>8.167</v>
+        <v>13.415</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>9.225</v>
+        <v>14.161</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>12.553</v>
+        <v>21.005</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.2</v>
+        <v>0.115</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>31.988</v>
+        <v>55.147</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>5.681</v>
+        <v>9.172000000000001</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>11.387</v>
+        <v>19.72</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44812.5625</v>
+        <v>45162.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>3.244</v>
+        <v>14.625</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>2.938</v>
+        <v>11.448</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.008</v>
+        <v>0.712</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>7.771</v>
+        <v>31.93</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>6.503</v>
+        <v>26.604</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>3.008</v>
+        <v>11.755</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>15.475</v>
+        <v>47.072</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>4.745</v>
+        <v>17.952</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>2.297</v>
+        <v>8.082000000000001</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>3.565</v>
+        <v>12.588</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>3.807</v>
+        <v>13.893</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>3.324</v>
+        <v>13.558</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.836</v>
+        <v>3.533</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>2.69</v>
+        <v>11.35</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>4.289</v>
+        <v>16.687</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>2.455</v>
+        <v>9.613</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.199</v>
+        <v>0.111</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.008</v>
+        <v>0.417</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>38.287</v>
+        <v>169.846</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>8.672000000000001</v>
+        <v>32.601</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>2.621</v>
+        <v>10.388</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>5.499</v>
+        <v>21.869</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>3.283</v>
+        <v>11.948</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.347</v>
+        <v>1.559</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>8.01</v>
+        <v>23.166</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>2.436</v>
+        <v>9.375999999999999</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>2.757</v>
+        <v>9.021000000000001</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>2.964</v>
+        <v>9.561999999999999</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>3.962</v>
+        <v>14.136</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.158</v>
+        <v>0.092</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>14.556</v>
+        <v>42.787</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.807</v>
+        <v>6.226</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>3.255</v>
+        <v>13.275</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44812.56944444445</v>
+        <v>45162.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>9.15</v>
+        <v>6.04</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>7.246</v>
+        <v>4.88</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.212</v>
+        <v>0.37</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>20.479</v>
+        <v>13.24</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>16.949</v>
+        <v>11.09</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>7.549</v>
+        <v>4.93</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>27.395</v>
+        <v>22.86</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>11.722</v>
+        <v>7.51</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>5.319</v>
+        <v>3.41</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>8.145</v>
+        <v>5.43</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>8.736000000000001</v>
+        <v>6.12</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>8.706</v>
+        <v>5.62</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.297</v>
+        <v>1.41</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>7.263</v>
+        <v>4.66</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>10.669</v>
+        <v>7.04</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>6.207</v>
+        <v>4.03</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.214</v>
+        <v>0.04</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.189</v>
+        <v>0.15</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>106.931</v>
+        <v>66.92</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>20.92</v>
+        <v>13.79</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>6.815</v>
+        <v>4.22</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>13.832</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>7.641</v>
+        <v>5.16</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.957</v>
+        <v>0.66</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>13.951</v>
+        <v>11.01</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>6.121</v>
+        <v>3.89</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>5.838</v>
+        <v>4.01</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>6.656</v>
+        <v>3.93</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>9.146000000000001</v>
+        <v>6.08</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.129</v>
+        <v>0.08</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>24.696</v>
+        <v>20.89</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>4.126</v>
+        <v>2.66</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>8.512</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44812.57637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>7.81</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>0.75</v>
+        <v>5.5</v>
       </c>
     </row>
   </sheetData>
